--- a/src/test.xlsx
+++ b/src/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farha\lawApp\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5CAC8C-45DB-4B5E-933B-27E93FDE4D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF0AC57-8E6E-4D6C-A9DA-922FC4E6C577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bhartiya Nyaya Sanhita" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bhartiya Nyaya Sanhita'!$B$58:$D$201</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -13294,39 +13305,6 @@
     <t>Definition of bail introduced in the second Bill</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> संक्षिप्त नाम, लागू होना और प्रारंभ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>।(1) इस अधिनियम का संक्षिप्त नाम भारतीय साक्ष्य अधिनियम, 2023 है।
-(2) यह किसी न्यायालय में या उसके समक्ष सभी न्यायिक कार्यवाहियों को लागू
-होता है, जिसके अंतर्गत सेना न्यायालय भी सम्मिलित है, किंतु न तो किसी न्यायालय
-या अधिकारी के समक्ष प्रस्तुत किए गए शपथ-पत्रों को, न ही किसी मध्यस्थ के समक्ष
-की कार्यवाहियों को लागू होता है।
-(3) यह उस तारीख को प्रवृत्त होगा, जिसे केन्द्रीय सरकार, राजपत्र में अधिसूचना
-द्वारा, नियत करे।</t>
-    </r>
-  </si>
-  <si>
     <t>कोई बड़ा बदलाव नहींs</t>
   </si>
   <si>
@@ -18685,6 +18663,34 @@
   </si>
   <si>
     <t xml:space="preserve">नयी धारा नंबर </t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> संक्षिप्त नाम, लागू होना और प्रारंभ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>।(1) इस अधिनियम का संक्षिप्त नाम भारतीय साक्ष्य अधिनियम, 2023 है।
+(2) यह किसी न्यायालय में या उसके समक्ष सभी न्यायिक कार्यवाहियों को लागू
+होता है, जिसके अंतर्गत सेना न्यायालय भी सम्मिलित है, किंतु न तो किसी न्यायालय
+या अधिकारी के समक्ष प्रस्तुत किए गए शपथ-पत्रों को, न ही किसी मध्यस्थ के समक्ष
+की कार्यवाहियों को लागू होता है।
+(3) यह उस तारीख को प्रवृत्त होगा, जिसे केन्द्रीय सरकार, राजपत्र में अधिसूचना
+द्वारा, नियत करे।</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -19634,16 +19640,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.5">
       <c r="A1" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="100" t="s">
         <v>843</v>
-      </c>
-      <c r="D1" s="100" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.5">
@@ -22343,16 +22349,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="25">
       <c r="A1" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="100" t="s">
         <v>843</v>
-      </c>
-      <c r="D1" s="100" t="s">
-        <v>844</v>
       </c>
       <c r="E1" s="39"/>
       <c r="F1" s="40"/>
@@ -36306,9 +36312,9 @@
   </sheetPr>
   <dimension ref="A1:D1092"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="101" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -36320,16 +36326,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.5">
       <c r="A1" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="100" t="s">
         <v>843</v>
-      </c>
-      <c r="D1" s="100" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="126">
@@ -36340,10 +36346,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>610</v>
+        <v>845</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>611</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14">
@@ -36368,10 +36374,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="42" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>612</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="409.5">
@@ -36379,13 +36385,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="42" t="s">
+        <v>613</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>614</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>615</v>
-      </c>
       <c r="D5" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14">
@@ -36396,10 +36402,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="76" t="s">
+        <v>615</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>616</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="369" customHeight="1">
@@ -36410,7 +36416,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D7" s="42"/>
     </row>
@@ -36422,7 +36428,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D8" s="42"/>
     </row>
@@ -36434,10 +36440,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="409.5">
@@ -36448,10 +36454,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="252">
@@ -36462,10 +36468,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="266">
@@ -36476,10 +36482,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="70">
@@ -36490,10 +36496,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="42" t="s">
+        <v>623</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>624</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="210">
@@ -36504,7 +36510,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>15</v>
@@ -36518,10 +36524,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="336">
@@ -36532,10 +36538,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="182">
@@ -36546,10 +36552,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="70">
@@ -36560,10 +36566,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="224">
@@ -36574,10 +36580,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="168">
@@ -36588,10 +36594,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="112">
@@ -36602,10 +36608,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.5">
@@ -36616,10 +36622,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="70">
@@ -36630,15 +36636,15 @@
         <v>20</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14">
       <c r="A24" s="73" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B24" s="42" t="s">
         <v>5</v>
@@ -36647,7 +36653,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="140">
@@ -36658,10 +36664,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="171.75" customHeight="1">
@@ -36672,10 +36678,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="42" t="s">
+        <v>638</v>
+      </c>
+      <c r="D26" s="42" t="s">
         <v>639</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="336">
@@ -36686,10 +36692,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="42" t="s">
+        <v>640</v>
+      </c>
+      <c r="D27" s="82" t="s">
         <v>641</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="336">
@@ -36700,10 +36706,10 @@
         <v>22</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="165" customHeight="1">
@@ -36714,10 +36720,10 @@
         <v>23</v>
       </c>
       <c r="C29" s="42" t="s">
+        <v>643</v>
+      </c>
+      <c r="D29" s="42" t="s">
         <v>644</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="154">
@@ -36725,13 +36731,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="81" t="s">
+        <v>645</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>646</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>647</v>
-      </c>
       <c r="D30" s="42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="154">
@@ -36739,13 +36745,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="322">
@@ -36756,10 +36762,10 @@
         <v>24</v>
       </c>
       <c r="C32" s="42" t="s">
+        <v>648</v>
+      </c>
+      <c r="D32" s="42" t="s">
         <v>649</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="406.5" customHeight="1">
@@ -36770,10 +36776,10 @@
         <v>25</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="406.5" customHeight="1">
@@ -36784,10 +36790,10 @@
         <v>26</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="182">
@@ -36798,10 +36804,10 @@
         <v>27</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="140">
@@ -36812,10 +36818,10 @@
         <v>28</v>
       </c>
       <c r="C36" s="42" t="s">
+        <v>653</v>
+      </c>
+      <c r="D36" s="42" t="s">
         <v>654</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="98">
@@ -36826,10 +36832,10 @@
         <v>29</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="70">
@@ -36840,10 +36846,10 @@
         <v>30</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="70">
@@ -36854,10 +36860,10 @@
         <v>31</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="112">
@@ -36868,10 +36874,10 @@
         <v>32</v>
       </c>
       <c r="C40" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="D40" s="42" t="s">
         <v>659</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="126">
@@ -36882,10 +36888,10 @@
         <v>33</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="56">
@@ -36896,10 +36902,10 @@
         <v>34</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="210">
@@ -36910,10 +36916,10 @@
         <v>35</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="126">
@@ -36924,10 +36930,10 @@
         <v>36</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="350">
@@ -36938,10 +36944,10 @@
         <v>37</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="56">
@@ -36952,10 +36958,10 @@
         <v>38</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="266">
@@ -36966,24 +36972,24 @@
         <v>39</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="70">
       <c r="A48" s="73" t="s">
+        <v>667</v>
+      </c>
+      <c r="B48" s="42" t="s">
         <v>668</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="C48" s="42" t="s">
         <v>669</v>
       </c>
-      <c r="C48" s="42" t="s">
-        <v>670</v>
-      </c>
       <c r="D48" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="140">
@@ -36994,10 +37000,10 @@
         <v>40</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="322">
@@ -37008,24 +37014,24 @@
         <v>41</v>
       </c>
       <c r="C50" s="42" t="s">
+        <v>671</v>
+      </c>
+      <c r="D50" s="42" t="s">
         <v>672</v>
-      </c>
-      <c r="D50" s="42" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="84">
       <c r="A51" s="73" t="s">
+        <v>673</v>
+      </c>
+      <c r="B51" s="42" t="s">
         <v>674</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="C51" s="42" t="s">
         <v>675</v>
       </c>
-      <c r="C51" s="42" t="s">
-        <v>676</v>
-      </c>
       <c r="D51" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="140">
@@ -37036,10 +37042,10 @@
         <v>42</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="98">
@@ -37050,10 +37056,10 @@
         <v>43</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="168">
@@ -37064,7 +37070,7 @@
         <v>44</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D54" s="42"/>
     </row>
@@ -37076,10 +37082,10 @@
         <v>45</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="42">
@@ -37090,10 +37096,10 @@
         <v>46</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="42">
@@ -37104,10 +37110,10 @@
         <v>47</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="168">
@@ -37118,10 +37124,10 @@
         <v>48</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="154">
@@ -37132,7 +37138,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D59" s="42" t="s">
         <v>15</v>
@@ -37146,10 +37152,10 @@
         <v>50</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="28">
@@ -37160,10 +37166,10 @@
         <v>51</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="409.5">
@@ -37174,10 +37180,10 @@
         <v>52</v>
       </c>
       <c r="C62" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="D62" s="42" t="s">
         <v>687</v>
-      </c>
-      <c r="D62" s="42" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="112">
@@ -37188,10 +37194,10 @@
         <v>53</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="28">
@@ -37202,10 +37208,10 @@
         <v>54</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="224">
@@ -37216,10 +37222,10 @@
         <v>55</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="28">
@@ -37230,10 +37236,10 @@
         <v>56</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="409.5">
@@ -37244,10 +37250,10 @@
         <v>57</v>
       </c>
       <c r="C67" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="D67" s="42" t="s">
         <v>693</v>
-      </c>
-      <c r="D67" s="42" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="409.5">
@@ -37258,10 +37264,10 @@
         <v>58</v>
       </c>
       <c r="C68" s="42" t="s">
+        <v>694</v>
+      </c>
+      <c r="D68" s="42" t="s">
         <v>695</v>
-      </c>
-      <c r="D68" s="42" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="28">
@@ -37272,7 +37278,7 @@
         <v>59</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D69" s="42" t="s">
         <v>15</v>
@@ -37286,10 +37292,10 @@
         <v>60</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="84">
@@ -37300,38 +37306,38 @@
         <v>61</v>
       </c>
       <c r="C71" s="85" t="s">
+        <v>698</v>
+      </c>
+      <c r="D71" s="42" t="s">
         <v>699</v>
-      </c>
-      <c r="D71" s="42" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="28">
       <c r="A72" s="73" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B72" s="77">
         <v>62</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="409.5">
       <c r="A73" s="79" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B73" s="86">
         <v>63</v>
       </c>
       <c r="C73" s="42" t="s">
+        <v>703</v>
+      </c>
+      <c r="D73" s="42" t="s">
         <v>704</v>
-      </c>
-      <c r="D73" s="42" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="224">
@@ -37342,10 +37348,10 @@
         <v>64</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="70">
@@ -37356,24 +37362,24 @@
         <v>65</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="56">
       <c r="A76" s="73" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B76" s="77">
         <v>66</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="98">
@@ -37384,10 +37390,10 @@
         <v>67</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="56">
@@ -37398,10 +37404,10 @@
         <v>68</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="42">
@@ -37412,10 +37418,10 @@
         <v>69</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="42">
@@ -37426,10 +37432,10 @@
         <v>70</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="42">
@@ -37440,10 +37446,10 @@
         <v>71</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="154">
@@ -37454,24 +37460,24 @@
         <v>72</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="84">
       <c r="A83" s="73" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B83" s="77">
         <v>73</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="140">
@@ -37482,10 +37488,10 @@
         <v>74</v>
       </c>
       <c r="C84" s="87" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="14">
@@ -37493,13 +37499,13 @@
         <v>75</v>
       </c>
       <c r="B85" s="77" t="s">
+        <v>718</v>
+      </c>
+      <c r="C85" s="42" t="s">
         <v>719</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>720</v>
-      </c>
       <c r="D85" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="140">
@@ -37510,10 +37516,10 @@
         <v>75</v>
       </c>
       <c r="C86" s="87" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="42">
@@ -37524,10 +37530,10 @@
         <v>76</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="409.5">
@@ -37538,10 +37544,10 @@
         <v>77</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="154">
@@ -37552,10 +37558,10 @@
         <v>78</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="154">
@@ -37566,10 +37572,10 @@
         <v>79</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="140">
@@ -37580,19 +37586,19 @@
         <v>80</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D91" s="42"/>
     </row>
     <row r="92" spans="1:4" ht="154">
       <c r="A92" s="73" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B92" s="77">
         <v>81</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D92" s="42"/>
     </row>
@@ -37616,10 +37622,10 @@
         <v>82</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D94" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="56">
@@ -37630,10 +37636,10 @@
         <v>83</v>
       </c>
       <c r="C95" s="87" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D95" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="56">
@@ -37644,52 +37650,52 @@
         <v>84</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="70">
       <c r="A97" s="73" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B97" s="77">
         <v>85</v>
       </c>
       <c r="C97" s="42" t="s">
+        <v>732</v>
+      </c>
+      <c r="D97" s="42" t="s">
         <v>733</v>
-      </c>
-      <c r="D97" s="42" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="182">
       <c r="A98" s="73" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B98" s="77">
         <v>86</v>
       </c>
       <c r="C98" s="42" t="s">
+        <v>735</v>
+      </c>
+      <c r="D98" s="42" t="s">
         <v>736</v>
-      </c>
-      <c r="D98" s="42" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="56">
       <c r="A99" s="73" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B99" s="77">
         <v>87</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D99" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="154">
@@ -37700,10 +37706,10 @@
         <v>88</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="70">
@@ -37714,10 +37720,10 @@
         <v>89</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="14">
@@ -37732,16 +37738,16 @@
     </row>
     <row r="103" spans="1:4" ht="70">
       <c r="A103" s="73" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B103" s="80">
         <v>90</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D103" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="42">
@@ -37752,10 +37758,10 @@
         <v>91</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D104" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="252">
@@ -37766,24 +37772,24 @@
         <v>92</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="98">
       <c r="A106" s="73" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B106" s="80">
         <v>93</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="409.5">
@@ -37794,10 +37800,10 @@
         <v>94</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="409.5">
@@ -37808,10 +37814,10 @@
         <v>95</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="140">
@@ -37822,10 +37828,10 @@
         <v>96</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D109" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="98">
@@ -37836,10 +37842,10 @@
         <v>97</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D110" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="112">
@@ -37850,10 +37856,10 @@
         <v>98</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D111" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="154">
@@ -37864,10 +37870,10 @@
         <v>99</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="140">
@@ -37878,10 +37884,10 @@
         <v>100</v>
       </c>
       <c r="C113" s="87" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="98">
@@ -37892,10 +37898,10 @@
         <v>101</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D114" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="112">
@@ -37906,10 +37912,10 @@
         <v>102</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D115" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="42">
@@ -37920,10 +37926,10 @@
         <v>103</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D116" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="154">
@@ -37934,10 +37940,10 @@
         <v>104</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D117" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="168">
@@ -37948,10 +37954,10 @@
         <v>105</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="112">
@@ -37962,10 +37968,10 @@
         <v>106</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="126">
@@ -37976,10 +37982,10 @@
         <v>107</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="238">
@@ -37990,10 +37996,10 @@
         <v>108</v>
       </c>
       <c r="C121" s="42" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="112">
@@ -38004,10 +38010,10 @@
         <v>109</v>
       </c>
       <c r="C122" s="42" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D122" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="42">
@@ -38018,10 +38024,10 @@
         <v>110</v>
       </c>
       <c r="C123" s="42" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="56">
@@ -38032,10 +38038,10 @@
         <v>111</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="56">
@@ -38046,10 +38052,10 @@
         <v>112</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="42">
@@ -38060,10 +38066,10 @@
         <v>113</v>
       </c>
       <c r="C126" s="42" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="140">
@@ -38074,24 +38080,24 @@
         <v>114</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="224">
       <c r="A128" s="73" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B128" s="77">
         <v>115</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="98">
@@ -38102,10 +38108,10 @@
         <v>116</v>
       </c>
       <c r="C129" s="42" t="s">
+        <v>770</v>
+      </c>
+      <c r="D129" s="42" t="s">
         <v>771</v>
-      </c>
-      <c r="D129" s="42" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="14">
@@ -38120,30 +38126,30 @@
     </row>
     <row r="131" spans="1:4" ht="112">
       <c r="A131" s="73" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B131" s="42">
         <v>117</v>
       </c>
       <c r="C131" s="42" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D131" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="126">
       <c r="A132" s="73" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B132" s="42">
         <v>118</v>
       </c>
       <c r="C132" s="42" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D132" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="409.5">
@@ -38154,22 +38160,22 @@
         <v>119</v>
       </c>
       <c r="C133" s="42" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D133" s="42"/>
     </row>
     <row r="134" spans="1:4" ht="126">
       <c r="A134" s="73" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B134" s="42">
         <v>120</v>
       </c>
       <c r="C134" s="42" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="140">
@@ -38180,7 +38186,7 @@
         <v>121</v>
       </c>
       <c r="C135" s="80" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D135" s="45"/>
     </row>
@@ -38192,10 +38198,10 @@
         <v>122</v>
       </c>
       <c r="C136" s="77" t="s">
+        <v>780</v>
+      </c>
+      <c r="D136" s="42" t="s">
         <v>781</v>
-      </c>
-      <c r="D136" s="42" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="154">
@@ -38206,7 +38212,7 @@
         <v>123</v>
       </c>
       <c r="C137" s="80" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D137" s="45" t="s">
         <v>114</v>
@@ -38220,7 +38226,7 @@
         <v>124</v>
       </c>
       <c r="C138" s="80" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D138" s="45" t="s">
         <v>114</v>
@@ -38234,7 +38240,7 @@
         <v>125</v>
       </c>
       <c r="C139" s="80" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D139" s="45" t="s">
         <v>114</v>
@@ -38248,7 +38254,7 @@
         <v>126</v>
       </c>
       <c r="C140" s="80" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D140" s="45" t="s">
         <v>114</v>
@@ -38262,7 +38268,7 @@
         <v>127</v>
       </c>
       <c r="C141" s="80" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D141" s="45" t="s">
         <v>114</v>
@@ -38276,7 +38282,7 @@
         <v>128</v>
       </c>
       <c r="C142" s="80" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D142" s="45" t="s">
         <v>114</v>
@@ -38290,7 +38296,7 @@
         <v>129</v>
       </c>
       <c r="C143" s="80" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D143" s="45" t="s">
         <v>114</v>
@@ -38304,7 +38310,7 @@
         <v>130</v>
       </c>
       <c r="C144" s="80" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D144" s="45" t="s">
         <v>114</v>
@@ -38318,7 +38324,7 @@
         <v>131</v>
       </c>
       <c r="C145" s="80" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D145" s="45" t="s">
         <v>114</v>
@@ -38332,7 +38338,7 @@
         <v>132</v>
       </c>
       <c r="C146" s="80" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D146" s="45" t="s">
         <v>114</v>
@@ -38343,10 +38349,10 @@
         <v>127</v>
       </c>
       <c r="B147" s="45" t="s">
+        <v>792</v>
+      </c>
+      <c r="C147" s="80" t="s">
         <v>793</v>
-      </c>
-      <c r="C147" s="80" t="s">
-        <v>794</v>
       </c>
       <c r="D147" s="45" t="s">
         <v>114</v>
@@ -38360,7 +38366,7 @@
         <v>133</v>
       </c>
       <c r="C148" s="80" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D148" s="45" t="s">
         <v>114</v>
@@ -38374,7 +38380,7 @@
         <v>134</v>
       </c>
       <c r="C149" s="80" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D149" s="45" t="s">
         <v>114</v>
@@ -38388,7 +38394,7 @@
         <v>135</v>
       </c>
       <c r="C150" s="80" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D150" s="45" t="s">
         <v>114</v>
@@ -38402,7 +38408,7 @@
         <v>136</v>
       </c>
       <c r="C151" s="80" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D151" s="45" t="s">
         <v>114</v>
@@ -38416,7 +38422,7 @@
         <v>137</v>
       </c>
       <c r="C152" s="80" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D152" s="45" t="s">
         <v>114</v>
@@ -38430,7 +38436,7 @@
         <v>138</v>
       </c>
       <c r="C153" s="80" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D153" s="45" t="s">
         <v>114</v>
@@ -38444,7 +38450,7 @@
         <v>139</v>
       </c>
       <c r="C154" s="80" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D154" s="45" t="s">
         <v>114</v>
@@ -38458,7 +38464,7 @@
         <v>140</v>
       </c>
       <c r="C155" s="80" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D155" s="45" t="s">
         <v>15</v>
@@ -38472,7 +38478,7 @@
         <v>141</v>
       </c>
       <c r="C156" s="89" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D156" s="45" t="s">
         <v>15</v>
@@ -38486,7 +38492,7 @@
         <v>142</v>
       </c>
       <c r="C157" s="86" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D157" s="45" t="s">
         <v>114</v>
@@ -38500,7 +38506,7 @@
         <v>143</v>
       </c>
       <c r="C158" s="86" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D158" s="42" t="s">
         <v>15</v>
@@ -38514,7 +38520,7 @@
         <v>144</v>
       </c>
       <c r="C159" s="80" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D159" s="45" t="s">
         <v>15</v>
@@ -38528,7 +38534,7 @@
         <v>145</v>
       </c>
       <c r="C160" s="80" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D160" s="45" t="s">
         <v>15</v>
@@ -38542,10 +38548,10 @@
         <v>146</v>
       </c>
       <c r="C161" s="42" t="s">
+        <v>807</v>
+      </c>
+      <c r="D161" s="42" t="s">
         <v>808</v>
-      </c>
-      <c r="D161" s="42" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="168">
@@ -38553,13 +38559,13 @@
         <v>142</v>
       </c>
       <c r="B162" s="81" t="s">
+        <v>809</v>
+      </c>
+      <c r="C162" s="42" t="s">
         <v>810</v>
       </c>
-      <c r="C162" s="42" t="s">
+      <c r="D162" s="42" t="s">
         <v>811</v>
-      </c>
-      <c r="D162" s="42" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="168">
@@ -38567,13 +38573,13 @@
         <v>143</v>
       </c>
       <c r="B163" s="83" t="s">
+        <v>812</v>
+      </c>
+      <c r="C163" s="42" t="s">
         <v>813</v>
       </c>
-      <c r="C163" s="42" t="s">
+      <c r="D163" s="42" t="s">
         <v>814</v>
-      </c>
-      <c r="D163" s="42" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="322">
@@ -38584,7 +38590,7 @@
         <v>147</v>
       </c>
       <c r="C164" s="93" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D164" s="45" t="s">
         <v>15</v>
@@ -38598,7 +38604,7 @@
         <v>148</v>
       </c>
       <c r="C165" s="93" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D165" s="45" t="s">
         <v>15</v>
@@ -38612,7 +38618,7 @@
         <v>149</v>
       </c>
       <c r="C166" s="42" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D166" s="42" t="s">
         <v>114</v>
@@ -38626,7 +38632,7 @@
         <v>150</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D167" s="42" t="s">
         <v>114</v>
@@ -38640,7 +38646,7 @@
         <v>151</v>
       </c>
       <c r="C168" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D168" s="42" t="s">
         <v>114</v>
@@ -38654,7 +38660,7 @@
         <v>152</v>
       </c>
       <c r="C169" s="42" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D169" s="42" t="s">
         <v>114</v>
@@ -38668,7 +38674,7 @@
         <v>153</v>
       </c>
       <c r="C170" s="74" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D170" s="42" t="s">
         <v>114</v>
@@ -38682,7 +38688,7 @@
         <v>154</v>
       </c>
       <c r="C171" s="88" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D171" s="45" t="s">
         <v>15</v>
@@ -38696,7 +38702,7 @@
         <v>155</v>
       </c>
       <c r="C172" s="88" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D172" s="45" t="s">
         <v>15</v>
@@ -38710,7 +38716,7 @@
         <v>156</v>
       </c>
       <c r="C173" s="81" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D173" s="42" t="s">
         <v>114</v>
@@ -38724,7 +38730,7 @@
         <v>157</v>
       </c>
       <c r="C174" s="98" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D174" s="45" t="s">
         <v>15</v>
@@ -38738,7 +38744,7 @@
         <v>158</v>
       </c>
       <c r="C175" s="42" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D175" s="42" t="s">
         <v>114</v>
@@ -38752,7 +38758,7 @@
         <v>159</v>
       </c>
       <c r="C176" s="92" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D176" s="45" t="s">
         <v>15</v>
@@ -38766,7 +38772,7 @@
         <v>160</v>
       </c>
       <c r="C177" s="83" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D177" s="42" t="s">
         <v>114</v>
@@ -38780,7 +38786,7 @@
         <v>161</v>
       </c>
       <c r="C178" s="83" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D178" s="42" t="s">
         <v>114</v>
@@ -38794,7 +38800,7 @@
         <v>162</v>
       </c>
       <c r="C179" s="83" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D179" s="42" t="s">
         <v>114</v>
@@ -38808,7 +38814,7 @@
         <v>163</v>
       </c>
       <c r="C180" s="83" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D180" s="42" t="s">
         <v>114</v>
@@ -38822,7 +38828,7 @@
         <v>164</v>
       </c>
       <c r="C181" s="83" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D181" s="42" t="s">
         <v>114</v>
@@ -38836,10 +38842,10 @@
         <v>165</v>
       </c>
       <c r="C182" s="42" t="s">
+        <v>833</v>
+      </c>
+      <c r="D182" s="42" t="s">
         <v>834</v>
-      </c>
-      <c r="D182" s="42" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="393.75" customHeight="1">
@@ -38850,7 +38856,7 @@
         <v>166</v>
       </c>
       <c r="C183" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D183" s="42" t="s">
         <v>114</v>
@@ -38864,7 +38870,7 @@
         <v>167</v>
       </c>
       <c r="C184" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D184" s="42" t="s">
         <v>114</v>
@@ -38878,7 +38884,7 @@
         <v>168</v>
       </c>
       <c r="C185" s="42" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D185" s="42"/>
     </row>
@@ -38900,7 +38906,7 @@
         <v>169</v>
       </c>
       <c r="C187" s="42" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D187" s="42" t="s">
         <v>114</v>
@@ -38912,10 +38918,10 @@
         <v>170</v>
       </c>
       <c r="C188" s="42" t="s">
+        <v>839</v>
+      </c>
+      <c r="D188" s="42" t="s">
         <v>840</v>
-      </c>
-      <c r="D188" s="42" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="14">

--- a/src/test.xlsx
+++ b/src/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farha\lawApp\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF0AC57-8E6E-4D6C-A9DA-922FC4E6C577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5CAC8C-45DB-4B5E-933B-27E93FDE4D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bhartiya Nyaya Sanhita" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bhartiya Nyaya Sanhita'!$B$58:$D$201</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -13305,6 +13294,39 @@
     <t>Definition of bail introduced in the second Bill</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> संक्षिप्त नाम, लागू होना और प्रारंभ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>।(1) इस अधिनियम का संक्षिप्त नाम भारतीय साक्ष्य अधिनियम, 2023 है।
+(2) यह किसी न्यायालय में या उसके समक्ष सभी न्यायिक कार्यवाहियों को लागू
+होता है, जिसके अंतर्गत सेना न्यायालय भी सम्मिलित है, किंतु न तो किसी न्यायालय
+या अधिकारी के समक्ष प्रस्तुत किए गए शपथ-पत्रों को, न ही किसी मध्यस्थ के समक्ष
+की कार्यवाहियों को लागू होता है।
+(3) यह उस तारीख को प्रवृत्त होगा, जिसे केन्द्रीय सरकार, राजपत्र में अधिसूचना
+द्वारा, नियत करे।</t>
+    </r>
+  </si>
+  <si>
     <t>कोई बड़ा बदलाव नहींs</t>
   </si>
   <si>
@@ -18663,34 +18685,6 @@
   </si>
   <si>
     <t xml:space="preserve">नयी धारा नंबर </t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> संक्षिप्त नाम, लागू होना और प्रारंभ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>।(1) इस अधिनियम का संक्षिप्त नाम भारतीय साक्ष्य अधिनियम, 2023 है।
-(2) यह किसी न्यायालय में या उसके समक्ष सभी न्यायिक कार्यवाहियों को लागू
-होता है, जिसके अंतर्गत सेना न्यायालय भी सम्मिलित है, किंतु न तो किसी न्यायालय
-या अधिकारी के समक्ष प्रस्तुत किए गए शपथ-पत्रों को, न ही किसी मध्यस्थ के समक्ष
-की कार्यवाहियों को लागू होता है।
-(3) यह उस तारीख को प्रवृत्त होगा, जिसे केन्द्रीय सरकार, राजपत्र में अधिसूचना
-द्वारा, नियत करे।</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -19640,16 +19634,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.5">
       <c r="A1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D1" s="100" t="s">
         <v>844</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="D1" s="100" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.5">
@@ -22349,16 +22343,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="25">
       <c r="A1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D1" s="100" t="s">
         <v>844</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="D1" s="100" t="s">
-        <v>843</v>
       </c>
       <c r="E1" s="39"/>
       <c r="F1" s="40"/>
@@ -36312,9 +36306,9 @@
   </sheetPr>
   <dimension ref="A1:D1092"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="101" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -36326,16 +36320,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.5">
       <c r="A1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D1" s="100" t="s">
         <v>844</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="D1" s="100" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="126">
@@ -36346,10 +36340,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>845</v>
+        <v>610</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>114</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14">
@@ -36374,10 +36368,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="409.5">
@@ -36385,13 +36379,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14">
@@ -36402,10 +36396,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="369" customHeight="1">
@@ -36416,7 +36410,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D7" s="42"/>
     </row>
@@ -36428,7 +36422,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D8" s="42"/>
     </row>
@@ -36440,10 +36434,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="409.5">
@@ -36454,10 +36448,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="252">
@@ -36468,10 +36462,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="266">
@@ -36482,10 +36476,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="70">
@@ -36496,10 +36490,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="210">
@@ -36510,7 +36504,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>15</v>
@@ -36524,10 +36518,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="336">
@@ -36538,10 +36532,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="182">
@@ -36552,10 +36546,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="70">
@@ -36566,10 +36560,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="224">
@@ -36580,10 +36574,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="168">
@@ -36594,10 +36588,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="112">
@@ -36608,10 +36602,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.5">
@@ -36622,10 +36616,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="70">
@@ -36636,15 +36630,15 @@
         <v>20</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14">
       <c r="A24" s="73" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B24" s="42" t="s">
         <v>5</v>
@@ -36653,7 +36647,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="140">
@@ -36664,10 +36658,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="171.75" customHeight="1">
@@ -36678,10 +36672,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="336">
@@ -36692,10 +36686,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="336">
@@ -36706,10 +36700,10 @@
         <v>22</v>
       </c>
       <c r="C28" s="42" t="s">
+        <v>643</v>
+      </c>
+      <c r="D28" s="82" t="s">
         <v>642</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="165" customHeight="1">
@@ -36720,10 +36714,10 @@
         <v>23</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="154">
@@ -36731,13 +36725,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="81" t="s">
+        <v>646</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>647</v>
+      </c>
+      <c r="D30" s="42" t="s">
         <v>645</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>646</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="154">
@@ -36745,13 +36739,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="83" t="s">
+        <v>646</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>648</v>
+      </c>
+      <c r="D31" s="42" t="s">
         <v>645</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>647</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="322">
@@ -36762,10 +36756,10 @@
         <v>24</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="406.5" customHeight="1">
@@ -36776,10 +36770,10 @@
         <v>25</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="406.5" customHeight="1">
@@ -36790,10 +36784,10 @@
         <v>26</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="182">
@@ -36804,10 +36798,10 @@
         <v>27</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="140">
@@ -36818,10 +36812,10 @@
         <v>28</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="98">
@@ -36832,10 +36826,10 @@
         <v>29</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="70">
@@ -36846,10 +36840,10 @@
         <v>30</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="70">
@@ -36860,10 +36854,10 @@
         <v>31</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="112">
@@ -36874,10 +36868,10 @@
         <v>32</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="126">
@@ -36888,10 +36882,10 @@
         <v>33</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="56">
@@ -36902,10 +36896,10 @@
         <v>34</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="210">
@@ -36916,10 +36910,10 @@
         <v>35</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="126">
@@ -36930,10 +36924,10 @@
         <v>36</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="350">
@@ -36944,10 +36938,10 @@
         <v>37</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="56">
@@ -36958,10 +36952,10 @@
         <v>38</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="266">
@@ -36972,24 +36966,24 @@
         <v>39</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="70">
       <c r="A48" s="73" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="140">
@@ -37000,10 +36994,10 @@
         <v>40</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="322">
@@ -37014,24 +37008,24 @@
         <v>41</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="84">
       <c r="A51" s="73" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="140">
@@ -37042,10 +37036,10 @@
         <v>42</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="98">
@@ -37056,10 +37050,10 @@
         <v>43</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="168">
@@ -37070,7 +37064,7 @@
         <v>44</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D54" s="42"/>
     </row>
@@ -37082,10 +37076,10 @@
         <v>45</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="42">
@@ -37096,10 +37090,10 @@
         <v>46</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="42">
@@ -37110,10 +37104,10 @@
         <v>47</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="168">
@@ -37124,10 +37118,10 @@
         <v>48</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="154">
@@ -37138,7 +37132,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D59" s="42" t="s">
         <v>15</v>
@@ -37152,10 +37146,10 @@
         <v>50</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="28">
@@ -37166,10 +37160,10 @@
         <v>51</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="409.5">
@@ -37180,10 +37174,10 @@
         <v>52</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="112">
@@ -37194,10 +37188,10 @@
         <v>53</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="28">
@@ -37208,10 +37202,10 @@
         <v>54</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="224">
@@ -37222,10 +37216,10 @@
         <v>55</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="28">
@@ -37236,10 +37230,10 @@
         <v>56</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="409.5">
@@ -37250,10 +37244,10 @@
         <v>57</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="409.5">
@@ -37264,10 +37258,10 @@
         <v>58</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="28">
@@ -37278,7 +37272,7 @@
         <v>59</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D69" s="42" t="s">
         <v>15</v>
@@ -37292,10 +37286,10 @@
         <v>60</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="84">
@@ -37306,38 +37300,38 @@
         <v>61</v>
       </c>
       <c r="C71" s="85" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="28">
       <c r="A72" s="73" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B72" s="77">
         <v>62</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="409.5">
       <c r="A73" s="79" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B73" s="86">
         <v>63</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="224">
@@ -37348,10 +37342,10 @@
         <v>64</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="70">
@@ -37362,24 +37356,24 @@
         <v>65</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="56">
       <c r="A76" s="73" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B76" s="77">
         <v>66</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="98">
@@ -37390,10 +37384,10 @@
         <v>67</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="56">
@@ -37404,10 +37398,10 @@
         <v>68</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="42">
@@ -37418,10 +37412,10 @@
         <v>69</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="42">
@@ -37432,10 +37426,10 @@
         <v>70</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="42">
@@ -37446,10 +37440,10 @@
         <v>71</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="154">
@@ -37460,24 +37454,24 @@
         <v>72</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="84">
       <c r="A83" s="73" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B83" s="77">
         <v>73</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="140">
@@ -37488,10 +37482,10 @@
         <v>74</v>
       </c>
       <c r="C84" s="87" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="14">
@@ -37499,13 +37493,13 @@
         <v>75</v>
       </c>
       <c r="B85" s="77" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="140">
@@ -37516,10 +37510,10 @@
         <v>75</v>
       </c>
       <c r="C86" s="87" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="42">
@@ -37530,10 +37524,10 @@
         <v>76</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="409.5">
@@ -37544,10 +37538,10 @@
         <v>77</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="154">
@@ -37558,10 +37552,10 @@
         <v>78</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="154">
@@ -37572,10 +37566,10 @@
         <v>79</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="140">
@@ -37586,19 +37580,19 @@
         <v>80</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D91" s="42"/>
     </row>
     <row r="92" spans="1:4" ht="154">
       <c r="A92" s="73" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B92" s="77">
         <v>81</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D92" s="42"/>
     </row>
@@ -37622,10 +37616,10 @@
         <v>82</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D94" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="56">
@@ -37636,10 +37630,10 @@
         <v>83</v>
       </c>
       <c r="C95" s="87" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D95" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="56">
@@ -37650,52 +37644,52 @@
         <v>84</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="70">
       <c r="A97" s="73" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B97" s="77">
         <v>85</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="182">
       <c r="A98" s="73" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B98" s="77">
         <v>86</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D98" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="56">
       <c r="A99" s="73" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B99" s="77">
         <v>87</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D99" s="42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="154">
@@ -37706,10 +37700,10 @@
         <v>88</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="70">
@@ -37720,10 +37714,10 @@
         <v>89</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="14">
@@ -37738,16 +37732,16 @@
     </row>
     <row r="103" spans="1:4" ht="70">
       <c r="A103" s="73" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B103" s="80">
         <v>90</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D103" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="42">
@@ -37758,10 +37752,10 @@
         <v>91</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D104" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="252">
@@ -37772,24 +37766,24 @@
         <v>92</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="98">
       <c r="A106" s="73" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B106" s="80">
         <v>93</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="409.5">
@@ -37800,10 +37794,10 @@
         <v>94</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="409.5">
@@ -37814,10 +37808,10 @@
         <v>95</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="140">
@@ -37828,10 +37822,10 @@
         <v>96</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D109" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="98">
@@ -37842,10 +37836,10 @@
         <v>97</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D110" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="112">
@@ -37856,10 +37850,10 @@
         <v>98</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D111" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="154">
@@ -37870,10 +37864,10 @@
         <v>99</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="140">
@@ -37884,10 +37878,10 @@
         <v>100</v>
       </c>
       <c r="C113" s="87" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="98">
@@ -37898,10 +37892,10 @@
         <v>101</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D114" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="112">
@@ -37912,10 +37906,10 @@
         <v>102</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D115" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="42">
@@ -37926,10 +37920,10 @@
         <v>103</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D116" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="154">
@@ -37940,10 +37934,10 @@
         <v>104</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D117" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="168">
@@ -37954,10 +37948,10 @@
         <v>105</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="112">
@@ -37968,10 +37962,10 @@
         <v>106</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="126">
@@ -37982,10 +37976,10 @@
         <v>107</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="238">
@@ -37996,10 +37990,10 @@
         <v>108</v>
       </c>
       <c r="C121" s="42" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="112">
@@ -38010,10 +38004,10 @@
         <v>109</v>
       </c>
       <c r="C122" s="42" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D122" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="42">
@@ -38024,10 +38018,10 @@
         <v>110</v>
       </c>
       <c r="C123" s="42" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="56">
@@ -38038,10 +38032,10 @@
         <v>111</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="56">
@@ -38052,10 +38046,10 @@
         <v>112</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="42">
@@ -38066,10 +38060,10 @@
         <v>113</v>
       </c>
       <c r="C126" s="42" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="140">
@@ -38080,24 +38074,24 @@
         <v>114</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="224">
       <c r="A128" s="73" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B128" s="77">
         <v>115</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="98">
@@ -38108,10 +38102,10 @@
         <v>116</v>
       </c>
       <c r="C129" s="42" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="14">
@@ -38126,30 +38120,30 @@
     </row>
     <row r="131" spans="1:4" ht="112">
       <c r="A131" s="73" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B131" s="42">
         <v>117</v>
       </c>
       <c r="C131" s="42" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D131" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="126">
       <c r="A132" s="73" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B132" s="42">
         <v>118</v>
       </c>
       <c r="C132" s="42" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D132" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="409.5">
@@ -38160,22 +38154,22 @@
         <v>119</v>
       </c>
       <c r="C133" s="42" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D133" s="42"/>
     </row>
     <row r="134" spans="1:4" ht="126">
       <c r="A134" s="73" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B134" s="42">
         <v>120</v>
       </c>
       <c r="C134" s="42" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="140">
@@ -38186,7 +38180,7 @@
         <v>121</v>
       </c>
       <c r="C135" s="80" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D135" s="45"/>
     </row>
@@ -38198,10 +38192,10 @@
         <v>122</v>
       </c>
       <c r="C136" s="77" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D136" s="42" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="154">
@@ -38212,7 +38206,7 @@
         <v>123</v>
       </c>
       <c r="C137" s="80" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D137" s="45" t="s">
         <v>114</v>
@@ -38226,7 +38220,7 @@
         <v>124</v>
       </c>
       <c r="C138" s="80" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D138" s="45" t="s">
         <v>114</v>
@@ -38240,7 +38234,7 @@
         <v>125</v>
       </c>
       <c r="C139" s="80" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D139" s="45" t="s">
         <v>114</v>
@@ -38254,7 +38248,7 @@
         <v>126</v>
       </c>
       <c r="C140" s="80" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D140" s="45" t="s">
         <v>114</v>
@@ -38268,7 +38262,7 @@
         <v>127</v>
       </c>
       <c r="C141" s="80" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D141" s="45" t="s">
         <v>114</v>
@@ -38282,7 +38276,7 @@
         <v>128</v>
       </c>
       <c r="C142" s="80" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D142" s="45" t="s">
         <v>114</v>
@@ -38296,7 +38290,7 @@
         <v>129</v>
       </c>
       <c r="C143" s="80" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D143" s="45" t="s">
         <v>114</v>
@@ -38310,7 +38304,7 @@
         <v>130</v>
       </c>
       <c r="C144" s="80" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D144" s="45" t="s">
         <v>114</v>
@@ -38324,7 +38318,7 @@
         <v>131</v>
       </c>
       <c r="C145" s="80" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D145" s="45" t="s">
         <v>114</v>
@@ -38338,7 +38332,7 @@
         <v>132</v>
       </c>
       <c r="C146" s="80" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D146" s="45" t="s">
         <v>114</v>
@@ -38349,10 +38343,10 @@
         <v>127</v>
       </c>
       <c r="B147" s="45" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C147" s="80" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D147" s="45" t="s">
         <v>114</v>
@@ -38366,7 +38360,7 @@
         <v>133</v>
       </c>
       <c r="C148" s="80" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D148" s="45" t="s">
         <v>114</v>
@@ -38380,7 +38374,7 @@
         <v>134</v>
       </c>
       <c r="C149" s="80" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D149" s="45" t="s">
         <v>114</v>
@@ -38394,7 +38388,7 @@
         <v>135</v>
       </c>
       <c r="C150" s="80" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D150" s="45" t="s">
         <v>114</v>
@@ -38408,7 +38402,7 @@
         <v>136</v>
       </c>
       <c r="C151" s="80" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D151" s="45" t="s">
         <v>114</v>
@@ -38422,7 +38416,7 @@
         <v>137</v>
       </c>
       <c r="C152" s="80" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D152" s="45" t="s">
         <v>114</v>
@@ -38436,7 +38430,7 @@
         <v>138</v>
       </c>
       <c r="C153" s="80" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D153" s="45" t="s">
         <v>114</v>
@@ -38450,7 +38444,7 @@
         <v>139</v>
       </c>
       <c r="C154" s="80" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D154" s="45" t="s">
         <v>114</v>
@@ -38464,7 +38458,7 @@
         <v>140</v>
       </c>
       <c r="C155" s="80" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D155" s="45" t="s">
         <v>15</v>
@@ -38478,7 +38472,7 @@
         <v>141</v>
       </c>
       <c r="C156" s="89" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D156" s="45" t="s">
         <v>15</v>
@@ -38492,7 +38486,7 @@
         <v>142</v>
       </c>
       <c r="C157" s="86" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D157" s="45" t="s">
         <v>114</v>
@@ -38506,7 +38500,7 @@
         <v>143</v>
       </c>
       <c r="C158" s="86" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D158" s="42" t="s">
         <v>15</v>
@@ -38520,7 +38514,7 @@
         <v>144</v>
       </c>
       <c r="C159" s="80" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D159" s="45" t="s">
         <v>15</v>
@@ -38534,7 +38528,7 @@
         <v>145</v>
       </c>
       <c r="C160" s="80" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D160" s="45" t="s">
         <v>15</v>
@@ -38548,10 +38542,10 @@
         <v>146</v>
       </c>
       <c r="C161" s="42" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D161" s="42" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="168">
@@ -38559,13 +38553,13 @@
         <v>142</v>
       </c>
       <c r="B162" s="81" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D162" s="42" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="168">
@@ -38573,13 +38567,13 @@
         <v>143</v>
       </c>
       <c r="B163" s="83" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C163" s="42" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D163" s="42" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="322">
@@ -38590,7 +38584,7 @@
         <v>147</v>
       </c>
       <c r="C164" s="93" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D164" s="45" t="s">
         <v>15</v>
@@ -38604,7 +38598,7 @@
         <v>148</v>
       </c>
       <c r="C165" s="93" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D165" s="45" t="s">
         <v>15</v>
@@ -38618,7 +38612,7 @@
         <v>149</v>
       </c>
       <c r="C166" s="42" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D166" s="42" t="s">
         <v>114</v>
@@ -38632,7 +38626,7 @@
         <v>150</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D167" s="42" t="s">
         <v>114</v>
@@ -38646,7 +38640,7 @@
         <v>151</v>
       </c>
       <c r="C168" s="42" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D168" s="42" t="s">
         <v>114</v>
@@ -38660,7 +38654,7 @@
         <v>152</v>
       </c>
       <c r="C169" s="42" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D169" s="42" t="s">
         <v>114</v>
@@ -38674,7 +38668,7 @@
         <v>153</v>
       </c>
       <c r="C170" s="74" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D170" s="42" t="s">
         <v>114</v>
@@ -38688,7 +38682,7 @@
         <v>154</v>
       </c>
       <c r="C171" s="88" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D171" s="45" t="s">
         <v>15</v>
@@ -38702,7 +38696,7 @@
         <v>155</v>
       </c>
       <c r="C172" s="88" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D172" s="45" t="s">
         <v>15</v>
@@ -38716,7 +38710,7 @@
         <v>156</v>
       </c>
       <c r="C173" s="81" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D173" s="42" t="s">
         <v>114</v>
@@ -38730,7 +38724,7 @@
         <v>157</v>
       </c>
       <c r="C174" s="98" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D174" s="45" t="s">
         <v>15</v>
@@ -38744,7 +38738,7 @@
         <v>158</v>
       </c>
       <c r="C175" s="42" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D175" s="42" t="s">
         <v>114</v>
@@ -38758,7 +38752,7 @@
         <v>159</v>
       </c>
       <c r="C176" s="92" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D176" s="45" t="s">
         <v>15</v>
@@ -38772,7 +38766,7 @@
         <v>160</v>
       </c>
       <c r="C177" s="83" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D177" s="42" t="s">
         <v>114</v>
@@ -38786,7 +38780,7 @@
         <v>161</v>
       </c>
       <c r="C178" s="83" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D178" s="42" t="s">
         <v>114</v>
@@ -38800,7 +38794,7 @@
         <v>162</v>
       </c>
       <c r="C179" s="83" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D179" s="42" t="s">
         <v>114</v>
@@ -38814,7 +38808,7 @@
         <v>163</v>
       </c>
       <c r="C180" s="83" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D180" s="42" t="s">
         <v>114</v>
@@ -38828,7 +38822,7 @@
         <v>164</v>
       </c>
       <c r="C181" s="83" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D181" s="42" t="s">
         <v>114</v>
@@ -38842,10 +38836,10 @@
         <v>165</v>
       </c>
       <c r="C182" s="42" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D182" s="42" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="393.75" customHeight="1">
@@ -38856,7 +38850,7 @@
         <v>166</v>
       </c>
       <c r="C183" s="42" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D183" s="42" t="s">
         <v>114</v>
@@ -38870,7 +38864,7 @@
         <v>167</v>
       </c>
       <c r="C184" s="42" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D184" s="42" t="s">
         <v>114</v>
@@ -38884,7 +38878,7 @@
         <v>168</v>
       </c>
       <c r="C185" s="42" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D185" s="42"/>
     </row>
@@ -38906,7 +38900,7 @@
         <v>169</v>
       </c>
       <c r="C187" s="42" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D187" s="42" t="s">
         <v>114</v>
@@ -38918,10 +38912,10 @@
         <v>170</v>
       </c>
       <c r="C188" s="42" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D188" s="42" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="14">
